--- a/frontend/KTPM_PHU/DataTest/Search.xlsx
+++ b/frontend/KTPM_PHU/DataTest/Search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Medical-Store-frontend\Medical-Store-frontend\frontend\KTPM_PHU\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C668926B-3BA1-45B7-8916-17CDD9735D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3157B348-FD81-4E92-AD86-6567300B36E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25469F74-1A2A-4BA5-B427-42B7068D410B}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{25469F74-1A2A-4BA5-B427-42B7068D410B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +79,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,14 +109,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -442,19 +472,20 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -462,23 +493,23 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
